--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H2">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I2">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J2">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>1226.737079081781</v>
+        <v>1227.55781163984</v>
       </c>
       <c r="R2">
-        <v>1226.737079081781</v>
+        <v>4910.23124655936</v>
       </c>
       <c r="S2">
-        <v>0.1887083018866172</v>
+        <v>0.1765932044843211</v>
       </c>
       <c r="T2">
-        <v>0.1887083018866172</v>
+        <v>0.1163054953336392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H3">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I3">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J3">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>73.30120085303918</v>
+        <v>77.21513080329333</v>
       </c>
       <c r="R3">
-        <v>73.30120085303918</v>
+        <v>463.2907848197601</v>
       </c>
       <c r="S3">
-        <v>0.01127588411167991</v>
+        <v>0.01110796351416989</v>
       </c>
       <c r="T3">
-        <v>0.01127588411167991</v>
+        <v>0.01097367140289556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H4">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I4">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J4">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>227.7835977883008</v>
+        <v>229.6844490556333</v>
       </c>
       <c r="R4">
-        <v>227.7835977883008</v>
+        <v>1378.1066943338</v>
       </c>
       <c r="S4">
-        <v>0.03503982774241133</v>
+        <v>0.03304179444287584</v>
       </c>
       <c r="T4">
-        <v>0.03503982774241133</v>
+        <v>0.03264232857045323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H5">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I5">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J5">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>222.3643024251913</v>
+        <v>223.0336546292067</v>
       </c>
       <c r="R5">
-        <v>222.3643024251913</v>
+        <v>1338.20192777524</v>
       </c>
       <c r="S5">
-        <v>0.03420618046555566</v>
+        <v>0.03208502883151925</v>
       </c>
       <c r="T5">
-        <v>0.03420618046555566</v>
+        <v>0.03169712998250105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H6">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I6">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J6">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>779.1605426142038</v>
+        <v>819.9664540499369</v>
       </c>
       <c r="R6">
-        <v>779.1605426142038</v>
+        <v>4919.798724299621</v>
       </c>
       <c r="S6">
-        <v>0.1198578451739939</v>
+        <v>0.1179581949764888</v>
       </c>
       <c r="T6">
-        <v>0.1198578451739939</v>
+        <v>0.1165321140368733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H7">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I7">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J7">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>524.6790184517258</v>
+        <v>581.3423096316876</v>
       </c>
       <c r="R7">
-        <v>524.6790184517258</v>
+        <v>2325.36923852675</v>
       </c>
       <c r="S7">
-        <v>0.08071108984630404</v>
+        <v>0.08363035971644847</v>
       </c>
       <c r="T7">
-        <v>0.08071108984630404</v>
+        <v>0.05507952834400009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H8">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J8">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>13.02649810015839</v>
+        <v>16.275667695488</v>
       </c>
       <c r="R8">
-        <v>13.02649810015839</v>
+        <v>97.65400617292799</v>
       </c>
       <c r="S8">
-        <v>0.002003859162592621</v>
+        <v>0.002341374301246711</v>
       </c>
       <c r="T8">
-        <v>0.002003859162592621</v>
+        <v>0.002313067753624656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H9">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J9">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>0.7783721303721898</v>
+        <v>1.023762626983111</v>
       </c>
       <c r="R9">
-        <v>0.7783721303721898</v>
+        <v>9.213863642848001</v>
       </c>
       <c r="S9">
-        <v>0.0001197365641449013</v>
+        <v>0.0001472757708158165</v>
       </c>
       <c r="T9">
-        <v>0.0001197365641449013</v>
+        <v>0.0002182428731170129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H10">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J10">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>2.41879262837439</v>
+        <v>3.045288565804444</v>
       </c>
       <c r="R10">
-        <v>2.41879262837439</v>
+        <v>27.40759709224</v>
       </c>
       <c r="S10">
-        <v>0.0003720815627893557</v>
+        <v>0.0004380871200652264</v>
       </c>
       <c r="T10">
-        <v>0.0003720815627893557</v>
+        <v>0.0006491861575666928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H11">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J11">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>2.361246115796011</v>
+        <v>2.957108507016889</v>
       </c>
       <c r="R11">
-        <v>2.361246115796011</v>
+        <v>26.61397656315199</v>
       </c>
       <c r="S11">
-        <v>0.0003632292138603651</v>
+        <v>0.0004254017711511021</v>
       </c>
       <c r="T11">
-        <v>0.0003632292138603651</v>
+        <v>0.0006303881775719214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H12">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J12">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>8.273764200295822</v>
+        <v>10.87158698435289</v>
       </c>
       <c r="R12">
-        <v>8.273764200295822</v>
+        <v>97.844282859176</v>
       </c>
       <c r="S12">
-        <v>0.001272748675385904</v>
+        <v>0.001563957611765977</v>
       </c>
       <c r="T12">
-        <v>0.001272748675385904</v>
+        <v>0.002317574715340568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H13">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J13">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>5.571471143735383</v>
+        <v>7.707770794316667</v>
       </c>
       <c r="R13">
-        <v>5.571471143735383</v>
+        <v>46.24662476589999</v>
       </c>
       <c r="S13">
-        <v>0.000857056394946143</v>
+        <v>0.001108819422672041</v>
       </c>
       <c r="T13">
-        <v>0.000857056394946143</v>
+        <v>0.001095414112049381</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H14">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I14">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J14">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>106.6557568381173</v>
+        <v>122.24189849376</v>
       </c>
       <c r="R14">
-        <v>106.6557568381173</v>
+        <v>733.4513909625599</v>
       </c>
       <c r="S14">
-        <v>0.01640679743243606</v>
+        <v>0.01758539465316339</v>
       </c>
       <c r="T14">
-        <v>0.01640679743243606</v>
+        <v>0.01737279224656084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H15">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I15">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J15">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>6.372999713985617</v>
+        <v>7.689189130106667</v>
       </c>
       <c r="R15">
-        <v>6.372999713985617</v>
+        <v>69.20270217096001</v>
       </c>
       <c r="S15">
-        <v>0.0009803551017226145</v>
+        <v>0.001106146313840521</v>
       </c>
       <c r="T15">
-        <v>0.0009803551017226145</v>
+        <v>0.001639159980512033</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H16">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I16">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J16">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>19.80410670850923</v>
+        <v>22.87229394886667</v>
       </c>
       <c r="R16">
-        <v>19.80410670850923</v>
+        <v>205.8506455398</v>
       </c>
       <c r="S16">
-        <v>0.003046455031865061</v>
+        <v>0.003290347423183327</v>
       </c>
       <c r="T16">
-        <v>0.003046455031865061</v>
+        <v>0.004875852091697695</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H17">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I17">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J17">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>19.33293887773462</v>
+        <v>22.20999867489333</v>
       </c>
       <c r="R17">
-        <v>19.33293887773462</v>
+        <v>199.88998807404</v>
       </c>
       <c r="S17">
-        <v>0.002973975539099073</v>
+        <v>0.003195071385153367</v>
       </c>
       <c r="T17">
-        <v>0.002973975539099073</v>
+        <v>0.004734665824848217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H18">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I18">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J18">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>67.74227239721023</v>
+        <v>81.65338943211336</v>
       </c>
       <c r="R18">
-        <v>67.74227239721023</v>
+        <v>734.8805048890201</v>
       </c>
       <c r="S18">
-        <v>0.01042075715163573</v>
+        <v>0.01174643960561077</v>
       </c>
       <c r="T18">
-        <v>0.01042075715163573</v>
+        <v>0.01740664275069374</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H19">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I19">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J19">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N19">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O19">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P19">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q19">
-        <v>45.61697756126821</v>
+        <v>57.890868299875</v>
       </c>
       <c r="R19">
-        <v>45.61697756126821</v>
+        <v>347.34520979925</v>
       </c>
       <c r="S19">
-        <v>0.007017235004610932</v>
+        <v>0.008328026465652236</v>
       </c>
       <c r="T19">
-        <v>0.007017235004610932</v>
+        <v>0.008227343000551337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H20">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I20">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J20">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N20">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O20">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P20">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q20">
-        <v>247.1050712078377</v>
+        <v>288.182682754112</v>
       </c>
       <c r="R20">
-        <v>247.1050712078377</v>
+        <v>1729.096096524672</v>
       </c>
       <c r="S20">
-        <v>0.03801203955627235</v>
+        <v>0.04145719488066633</v>
       </c>
       <c r="T20">
-        <v>0.03801203955627235</v>
+        <v>0.04095598921673574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H21">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I21">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J21">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N21">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P21">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q21">
-        <v>14.76526532479804</v>
+        <v>18.12710027430577</v>
       </c>
       <c r="R21">
-        <v>14.76526532479804</v>
+        <v>163.143902468752</v>
       </c>
       <c r="S21">
-        <v>0.002271332785044346</v>
+        <v>0.002607716471757884</v>
       </c>
       <c r="T21">
-        <v>0.002271332785044346</v>
+        <v>0.003864284884869066</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H22">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I22">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J22">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N22">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O22">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P22">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q22">
-        <v>45.88308539070672</v>
+        <v>53.9209478267511</v>
       </c>
       <c r="R22">
-        <v>45.88308539070672</v>
+        <v>485.2885304407599</v>
       </c>
       <c r="S22">
-        <v>0.007058170228195809</v>
+        <v>0.007756924256657007</v>
       </c>
       <c r="T22">
-        <v>0.007058170228195809</v>
+        <v>0.01149471788160601</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H23">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I23">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J23">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N23">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O23">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P23">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q23">
-        <v>44.79146161130664</v>
+        <v>52.35960076669421</v>
       </c>
       <c r="R23">
-        <v>44.79146161130664</v>
+        <v>471.2364069002479</v>
       </c>
       <c r="S23">
-        <v>0.006890246332177413</v>
+        <v>0.007532313017957549</v>
       </c>
       <c r="T23">
-        <v>0.006890246332177413</v>
+        <v>0.01116187425229345</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H24">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I24">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J24">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N24">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O24">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P24">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q24">
-        <v>156.9484811766946</v>
+        <v>192.4961335880582</v>
       </c>
       <c r="R24">
-        <v>156.9484811766946</v>
+        <v>1732.465202292524</v>
       </c>
       <c r="S24">
-        <v>0.02414330003679889</v>
+        <v>0.02769198220957654</v>
       </c>
       <c r="T24">
-        <v>0.02414330003679889</v>
+        <v>0.04103579106220606</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H25">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I25">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J25">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N25">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O25">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P25">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q25">
-        <v>105.6875580159494</v>
+        <v>136.4764940596417</v>
       </c>
       <c r="R25">
-        <v>105.6875580159494</v>
+        <v>818.85896435785</v>
       </c>
       <c r="S25">
-        <v>0.01625785993088382</v>
+        <v>0.01963314574209936</v>
       </c>
       <c r="T25">
-        <v>0.01625785993088382</v>
+        <v>0.01939578660878029</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H26">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I26">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J26">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N26">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O26">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P26">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q26">
-        <v>902.9234374582229</v>
+        <v>929.6294567840959</v>
       </c>
       <c r="R26">
-        <v>902.9234374582229</v>
+        <v>5577.776740704575</v>
       </c>
       <c r="S26">
-        <v>0.1388962244003463</v>
+        <v>0.1337340231147401</v>
       </c>
       <c r="T26">
-        <v>0.1388962244003463</v>
+        <v>0.1321172169116608</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H27">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I27">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J27">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N27">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P27">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q27">
-        <v>53.95236956038031</v>
+        <v>58.47501390446844</v>
       </c>
       <c r="R27">
-        <v>53.95236956038031</v>
+        <v>526.275125140216</v>
       </c>
       <c r="S27">
-        <v>0.008299463850982075</v>
+        <v>0.00841206009993198</v>
       </c>
       <c r="T27">
-        <v>0.008299463850982075</v>
+        <v>0.01246554103823425</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H28">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I28">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J28">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N28">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O28">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P28">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q28">
-        <v>167.6570738903235</v>
+        <v>173.9400194293978</v>
       </c>
       <c r="R28">
-        <v>167.6570738903235</v>
+        <v>1565.46017486458</v>
       </c>
       <c r="S28">
-        <v>0.02579059706649076</v>
+        <v>0.02502254894054191</v>
       </c>
       <c r="T28">
-        <v>0.02579059706649076</v>
+        <v>0.03708005018914121</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H29">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I29">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J29">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N29">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O29">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P29">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q29">
-        <v>163.6682739418269</v>
+        <v>168.9033732110315</v>
       </c>
       <c r="R29">
-        <v>163.6682739418269</v>
+        <v>1520.130358899284</v>
       </c>
       <c r="S29">
-        <v>0.02517700212615553</v>
+        <v>0.0242979904007148</v>
       </c>
       <c r="T29">
-        <v>0.02517700212615553</v>
+        <v>0.03600635193859126</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H30">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I30">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J30">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N30">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O30">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P30">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q30">
-        <v>573.4907075570104</v>
+        <v>620.9605462420936</v>
       </c>
       <c r="R30">
-        <v>573.4907075570104</v>
+        <v>5588.644916178842</v>
       </c>
       <c r="S30">
-        <v>0.08821976560115313</v>
+        <v>0.08932973394771469</v>
       </c>
       <c r="T30">
-        <v>0.08821976560115313</v>
+        <v>0.1323746444071159</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H31">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I31">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J31">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N31">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O31">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P31">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q31">
-        <v>386.1829816518132</v>
+        <v>440.2504960532792</v>
       </c>
       <c r="R31">
-        <v>386.1829816518132</v>
+        <v>2641.502976319675</v>
       </c>
       <c r="S31">
-        <v>0.05940631935538486</v>
+        <v>0.06333326637382894</v>
       </c>
       <c r="T31">
-        <v>0.05940631935538486</v>
+        <v>0.06256758524385479</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H32">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I32">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J32">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N32">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O32">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P32">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q32">
-        <v>114.747033518482</v>
+        <v>117.505780341024</v>
       </c>
       <c r="R32">
-        <v>114.747033518482</v>
+        <v>470.0231213640959</v>
       </c>
       <c r="S32">
-        <v>0.01765147415125611</v>
+        <v>0.016904069282189</v>
       </c>
       <c r="T32">
-        <v>0.01765147415125611</v>
+        <v>0.0111331359366872</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H33">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I33">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J33">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N33">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P33">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q33">
-        <v>6.856477638651319</v>
+        <v>7.391280567922666</v>
       </c>
       <c r="R33">
-        <v>6.856477638651319</v>
+        <v>44.347683407536</v>
       </c>
       <c r="S33">
-        <v>0.001054728249578895</v>
+        <v>0.001063289979792097</v>
       </c>
       <c r="T33">
-        <v>0.001054728249578895</v>
+        <v>0.001050435107150413</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H34">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I34">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J34">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N34">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O34">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P34">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q34">
-        <v>21.30651512542412</v>
+        <v>21.98613390144666</v>
       </c>
       <c r="R34">
-        <v>21.30651512542412</v>
+        <v>131.91680340868</v>
       </c>
       <c r="S34">
-        <v>0.003277569706664312</v>
+        <v>0.003162866793777508</v>
       </c>
       <c r="T34">
-        <v>0.003277569706664312</v>
+        <v>0.003124628636182371</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H35">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I35">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J35">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N35">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O35">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P35">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q35">
-        <v>20.79960286420614</v>
+        <v>21.34949847657733</v>
       </c>
       <c r="R35">
-        <v>20.79960286420614</v>
+        <v>128.096990859464</v>
       </c>
       <c r="S35">
-        <v>0.003199591667481255</v>
+        <v>0.003071282113447277</v>
       </c>
       <c r="T35">
-        <v>0.003199591667481255</v>
+        <v>0.003034151188520508</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H36">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I36">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J36">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N36">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O36">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P36">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q36">
-        <v>72.88143680025696</v>
+        <v>78.48982518215534</v>
       </c>
       <c r="R36">
-        <v>72.88143680025696</v>
+        <v>470.938951092932</v>
       </c>
       <c r="S36">
-        <v>0.01121131203430138</v>
+        <v>0.01129133765994694</v>
       </c>
       <c r="T36">
-        <v>0.01121131203430138</v>
+        <v>0.0111548286075422</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H37">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I37">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J37">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N37">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O37">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P37">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q37">
-        <v>49.07764014257108</v>
+        <v>55.6479548993875</v>
       </c>
       <c r="R37">
-        <v>49.07764014257108</v>
+        <v>222.59181959755</v>
       </c>
       <c r="S37">
-        <v>0.007549586859181949</v>
+        <v>0.008005366904516125</v>
       </c>
       <c r="T37">
-        <v>0.007549586859181949</v>
+        <v>0.005272389534331914</v>
       </c>
     </row>
   </sheetData>
